--- a/Examples/DcPowerSystem/SingleMachineInfiniteBus/GfdBuckInfiniteBus.xlsx
+++ b/Examples/DcPowerSystem/SingleMachineInfiniteBus/GfdBuckInfiniteBus.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\DcPowerSystem\SingleMachineInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A7A192-FA43-4E3B-9708-55AE7DD8BF8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD474F1-3866-421D-82A5-D78EC29DD390}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="14399" windowHeight="7372" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
-    <sheet name="Device" sheetId="3" r:id="rId2"/>
+    <sheet name="Apparatus" sheetId="3" r:id="rId2"/>
     <sheet name="NetworkLine_IEEE" sheetId="5" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="Basic" sheetId="4" r:id="rId5"/>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet summarizes the devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +237,10 @@
   </si>
   <si>
     <t>Area type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -761,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -829,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -839,12 +839,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -942,7 +942,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1017,7 +1017,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -1035,7 +1035,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1068,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -1079,7 +1079,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -1121,7 +1121,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/Examples/DcPowerSystem/SingleMachineInfiniteBus/GfdBuckInfiniteBus.xlsx
+++ b/Examples/DcPowerSystem/SingleMachineInfiniteBus/GfdBuckInfiniteBus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\DcPowerSystem\SingleMachineInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD474F1-3866-421D-82A5-D78EC29DD390}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAECA77-990D-4BF7-B8F2-DC16E5E8B46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,143 +104,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bus number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for network line impedance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for power flow analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discretization Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samping frequency (Hz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linearization Times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discre Damping Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectFeedthrough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/2 (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G/2 (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns Ratio (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_SimulinkModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PlotPole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PlotAdmittance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheets summaries advanced settings for the toolbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Frequency (Hz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Power (VA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Voltage (V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes basic settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PrintOutput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Flow Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_Participation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>inf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the parameters for network line impedance.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the parameters for power flow analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discretization Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samping frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linearization Times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discre Damping Flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DirectFeedthrough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B/2 (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turns Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G/2 (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turns Ratio (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable_SimulinkModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable_PlotPole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable_PlotAdmittance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheets summaries advanced settings for the toolbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Power (VA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Voltage (V)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes basic settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable_PrintOutput</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Flow Algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable_Participation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the apparatuses connected to buses.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,12 +609,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -742,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -761,23 +761,23 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -829,22 +829,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -854,7 +854,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -914,12 +914,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -942,7 +942,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -962,8 +962,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -976,11 +976,11 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0.02</v>
@@ -1017,17 +1017,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>40000</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1079,17 +1079,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0</v>
